--- a/document/Literature Review/Lit_Matrix-zlu.xlsx
+++ b/document/Literature Review/Lit_Matrix-zlu.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UoSM\Modules 2023-2024\SEM-2 2023-24\UK Students Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\southampton-learn\iot\Msc_Project\Msc_project\document\Literature Review\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00560FA0-9529-49A2-83F4-85477841DE40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11F28829-B79A-4682-996F-E3A1FD0DC270}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{1F4AD7AE-9429-43CE-B8D9-38B1EADC8473}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{1F4AD7AE-9429-43CE-B8D9-38B1EADC8473}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
   <si>
     <t>[2]</t>
   </si>
@@ -587,13 +587,85 @@
   </si>
   <si>
     <t>10 Marks - Split</t>
+  </si>
+  <si>
+    <t>A Deep Learning Based Lightweight Human Activity Recognition System Using Reconstructed WiFi CSI</t>
+  </si>
+  <si>
+    <t>Learning Based</t>
+  </si>
+  <si>
+    <t>Learning Based (DD :  dendrite network)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wisor-DL </t>
+  </si>
+  <si>
+    <t>Intel 5300 NIC      CSI Data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The first data set comes from https://github.com/ermongroup/Wifi_Activity_Recognition : the sampling frequency is set as 1kHz, The first dataset is collected by six volunteers individually at different time. For each volunteer, each activity is collected 20 times with a window size of 2s.
+</t>
+  </si>
+  <si>
+    <t>six activities , inclueding Lie down, Fall, Run, Sit down, and Stand up</t>
+  </si>
+  <si>
+    <t>Hardware ： Intel 5300 NIC 
+software   ： none</t>
+  </si>
+  <si>
+    <t>number of volunteers : 8
+environment details :   An office room with a size of 4400 mm×2650mm and a laboratory room with a size of 4400 mm×3600mm are used to collect the second dataset and third dataset. Tx and Rx are set 3.5m apart in the office room and 2.5m apart in the laboratory room under the line-of-sight condition.</t>
+  </si>
+  <si>
+    <t>yes   In order to appropriately reduce the dimensions of CSI measurements and enhance the SNR of CSI measurements,  CSI tensor and sparse signal representation algorithm</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PCA and low-pass filter</t>
+  </si>
+  <si>
+    <t>GTCN-RC</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> It can be found that the training accuracy of Wisor-DL with DD reaches 98.22% in the 6th epoch, whereas Wisor-DL with dense layer reaches 92.03% and 98.04% in the 6th and 25th epoch, respectively. Therefore, Wisor-DL with DD outperforms that with dense layer.</t>
+  </si>
+  <si>
+    <t>The single-person recognition effect is remarkable. My understanding is that he uses tensor and sparse signal representation algorithms to reduce the complexity of CSI data, and uses GTCN and DD algorithms to extract features and classify to improve accuracy.
+This algorithm cannot effectively identify multi-person performance</t>
+  </si>
+  <si>
+    <t>The accuracy of the article can reach 98%</t>
+  </si>
+  <si>
+    <t>The main application of this research is to detect human activities, such as falls. The focus of this research is lightweight, but the accuracy is still guaranteed.</t>
+  </si>
+  <si>
+    <t>It is difficult to recognize activities of multiple people simultaneously in the same scene, and it does not support background traffic data for devices when activity recognition is taking place. </t>
+  </si>
+  <si>
+    <t>author: This article proposes Wisor-DL, a lightweight HAR system through WiFi CSI. Wisor-DL firstly uses two CSI signal reconstruction algorithms, i.e., CSI sparse signal representation algorithm and CSI tensor construction and decomposition algorithm, to reconstruct original CSI data, which reduces the computational complexity and significantly improves the cross-domain generalization ability. GTCN-RC is designed to capture the features of reconstructed CSI data. In addition, DD replaces the traditional dense layer to make activity decisions. Experimental results show that Wisor-DL is a lightweight WiFi CSI based HAR system with better performance compared with existing systems.
+my learn : I learned about the use of tensors and new classification algorithms and learning algorithms</t>
+  </si>
+  <si>
+    <t>I think future work may be multi-person recognition, identification of multi-person behaviors in fixed scenes, and spatial modeling</t>
+  </si>
+  <si>
+    <t>In this article, the author invented an algorithm framework called Wisor-Dl, using PCA and low-pass filters to remove noise, and using tensor and sparse matrix representation algorithms to simplify the complexity of CSI data, and used GTCN-RC to process the data  learns to extract features, and then uses the DD algorithm to classify the features, and finally obtains the result. But for me, one thing is very confusing, what exactly do the input and output of these algorithms look like, and how do these algorithms work.</t>
+  </si>
+  <si>
+    <t>WiFi-based human activity recognition through wall using deep learning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GTCN-RC : Deep learning
+DD: Deep learning </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -631,6 +703,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Georgia"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -741,7 +819,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -798,9 +876,18 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -816,9 +903,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -856,7 +943,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -962,7 +1049,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1104,7 +1191,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1115,37 +1202,37 @@
   <dimension ref="A1:V72"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="225" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="225" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.3984375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" style="4" customWidth="1"/>
     <col min="2" max="2" width="46" style="5" customWidth="1"/>
     <col min="3" max="3" width="46" style="1" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="28.86328125" customWidth="1"/>
-    <col min="5" max="5" width="42.86328125" customWidth="1"/>
-    <col min="6" max="8" width="24.73046875" customWidth="1"/>
-    <col min="9" max="9" width="31.1328125" customWidth="1"/>
+    <col min="4" max="4" width="28.85546875" style="22" customWidth="1"/>
+    <col min="5" max="5" width="21.42578125" customWidth="1"/>
+    <col min="6" max="8" width="24.7109375" customWidth="1"/>
+    <col min="9" max="9" width="31.140625" customWidth="1"/>
     <col min="10" max="10" width="35" customWidth="1"/>
     <col min="11" max="11" width="37" customWidth="1"/>
-    <col min="12" max="12" width="39.1328125" customWidth="1"/>
-    <col min="13" max="13" width="37.3984375" customWidth="1"/>
-    <col min="14" max="14" width="30.3984375" customWidth="1"/>
-    <col min="15" max="15" width="34.59765625" customWidth="1"/>
-    <col min="16" max="16" width="38.59765625" customWidth="1"/>
-    <col min="17" max="17" width="40.73046875" customWidth="1"/>
-    <col min="18" max="18" width="42.1328125" customWidth="1"/>
-    <col min="19" max="19" width="48.265625" customWidth="1"/>
-    <col min="20" max="20" width="45.86328125" customWidth="1"/>
+    <col min="12" max="12" width="39.140625" customWidth="1"/>
+    <col min="13" max="13" width="37.42578125" customWidth="1"/>
+    <col min="14" max="14" width="30.42578125" customWidth="1"/>
+    <col min="15" max="15" width="34.5703125" customWidth="1"/>
+    <col min="16" max="16" width="38.5703125" customWidth="1"/>
+    <col min="17" max="17" width="40.7109375" customWidth="1"/>
+    <col min="18" max="18" width="42.140625" customWidth="1"/>
+    <col min="19" max="19" width="48.28515625" customWidth="1"/>
+    <col min="20" max="20" width="45.85546875" customWidth="1"/>
     <col min="21" max="21" width="45" customWidth="1"/>
     <col min="22" max="22" width="69" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="2" customFormat="1" ht="133.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:22" s="2" customFormat="1" ht="133.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>25</v>
       </c>
@@ -1213,7 +1300,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:22" s="2" customFormat="1" ht="58.5" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:22" s="2" customFormat="1" ht="58.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
         <v>47</v>
       </c>
@@ -1279,39 +1366,83 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="225" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:22" ht="225" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="14"/>
+      <c r="B3" s="14" t="s">
+        <v>49</v>
+      </c>
       <c r="C3" s="3"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="17"/>
-      <c r="P3" s="17"/>
-      <c r="Q3" s="17"/>
-      <c r="R3" s="17"/>
-      <c r="S3" s="17"/>
-      <c r="T3" s="17"/>
-      <c r="U3" s="17"/>
-      <c r="V3" s="17"/>
-    </row>
-    <row r="4" spans="1:22" ht="225" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D3" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="S3" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="V3" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" ht="225" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="15"/>
+      <c r="B4" s="15" t="s">
+        <v>69</v>
+      </c>
       <c r="C4" s="3"/>
-      <c r="D4" s="17"/>
+      <c r="D4" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="E4" s="17"/>
       <c r="F4" s="17"/>
       <c r="G4" s="17"/>
@@ -1331,13 +1462,13 @@
       <c r="U4" s="17"/>
       <c r="V4" s="17"/>
     </row>
-    <row r="5" spans="1:22" ht="225" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:22" ht="225" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="15"/>
       <c r="C5" s="3"/>
-      <c r="D5" s="17"/>
+      <c r="D5" s="4"/>
       <c r="E5" s="17"/>
       <c r="F5" s="17"/>
       <c r="G5" s="17"/>
@@ -1357,13 +1488,13 @@
       <c r="U5" s="17"/>
       <c r="V5" s="17"/>
     </row>
-    <row r="6" spans="1:22" ht="225" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:22" ht="225" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="15"/>
       <c r="C6" s="3"/>
-      <c r="D6" s="17"/>
+      <c r="D6" s="4"/>
       <c r="E6" s="17"/>
       <c r="F6" s="17"/>
       <c r="G6" s="17"/>
@@ -1383,13 +1514,13 @@
       <c r="U6" s="17"/>
       <c r="V6" s="17"/>
     </row>
-    <row r="7" spans="1:22" ht="225" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:22" ht="225" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="15"/>
       <c r="C7" s="3"/>
-      <c r="D7" s="17"/>
+      <c r="D7" s="4"/>
       <c r="E7" s="17"/>
       <c r="F7" s="17"/>
       <c r="G7" s="17"/>
@@ -1409,13 +1540,13 @@
       <c r="U7" s="17"/>
       <c r="V7" s="17"/>
     </row>
-    <row r="8" spans="1:22" ht="225" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:22" ht="225" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="15"/>
       <c r="C8" s="3"/>
-      <c r="D8" s="17"/>
+      <c r="D8" s="4"/>
       <c r="E8" s="17"/>
       <c r="F8" s="17"/>
       <c r="G8" s="17"/>
@@ -1435,13 +1566,13 @@
       <c r="U8" s="17"/>
       <c r="V8" s="17"/>
     </row>
-    <row r="9" spans="1:22" ht="225" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:22" ht="225" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="15"/>
       <c r="C9" s="3"/>
-      <c r="D9" s="17"/>
+      <c r="D9" s="4"/>
       <c r="E9" s="17"/>
       <c r="F9" s="17"/>
       <c r="G9" s="17"/>
@@ -1461,13 +1592,13 @@
       <c r="U9" s="17"/>
       <c r="V9" s="17"/>
     </row>
-    <row r="10" spans="1:22" ht="225" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:22" ht="225" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>6</v>
       </c>
       <c r="B10" s="15"/>
       <c r="C10" s="3"/>
-      <c r="D10" s="17"/>
+      <c r="D10" s="4"/>
       <c r="E10" s="17"/>
       <c r="F10" s="17"/>
       <c r="G10" s="17"/>
@@ -1487,13 +1618,13 @@
       <c r="U10" s="17"/>
       <c r="V10" s="17"/>
     </row>
-    <row r="11" spans="1:22" ht="225" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:22" ht="225" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>7</v>
       </c>
       <c r="B11" s="15"/>
       <c r="C11" s="3"/>
-      <c r="D11" s="17"/>
+      <c r="D11" s="4"/>
       <c r="E11" s="17"/>
       <c r="F11" s="17"/>
       <c r="G11" s="17"/>
@@ -1513,13 +1644,13 @@
       <c r="U11" s="17"/>
       <c r="V11" s="17"/>
     </row>
-    <row r="12" spans="1:22" ht="225" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:22" ht="225" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>8</v>
       </c>
       <c r="B12" s="15"/>
       <c r="C12" s="3"/>
-      <c r="D12" s="17"/>
+      <c r="D12" s="4"/>
       <c r="E12" s="17"/>
       <c r="F12" s="17"/>
       <c r="G12" s="17"/>
@@ -1539,13 +1670,13 @@
       <c r="U12" s="17"/>
       <c r="V12" s="17"/>
     </row>
-    <row r="13" spans="1:22" ht="225" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:22" ht="225" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>9</v>
       </c>
       <c r="B13" s="15"/>
       <c r="C13" s="3"/>
-      <c r="D13" s="17"/>
+      <c r="D13" s="4"/>
       <c r="E13" s="17"/>
       <c r="F13" s="17"/>
       <c r="G13" s="17"/>
@@ -1565,13 +1696,13 @@
       <c r="U13" s="17"/>
       <c r="V13" s="17"/>
     </row>
-    <row r="14" spans="1:22" ht="225" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:22" ht="225" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>10</v>
       </c>
       <c r="B14" s="15"/>
       <c r="C14" s="3"/>
-      <c r="D14" s="17"/>
+      <c r="D14" s="4"/>
       <c r="E14" s="17"/>
       <c r="F14" s="17"/>
       <c r="G14" s="17"/>
@@ -1591,13 +1722,13 @@
       <c r="U14" s="17"/>
       <c r="V14" s="17"/>
     </row>
-    <row r="15" spans="1:22" ht="225" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:22" ht="225" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>11</v>
       </c>
       <c r="B15" s="15"/>
       <c r="C15" s="3"/>
-      <c r="D15" s="17"/>
+      <c r="D15" s="4"/>
       <c r="E15" s="17"/>
       <c r="F15" s="17"/>
       <c r="G15" s="17"/>
@@ -1617,13 +1748,13 @@
       <c r="U15" s="17"/>
       <c r="V15" s="17"/>
     </row>
-    <row r="16" spans="1:22" ht="225" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:22" ht="225" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>12</v>
       </c>
       <c r="B16" s="15"/>
       <c r="C16" s="3"/>
-      <c r="D16" s="17"/>
+      <c r="D16" s="4"/>
       <c r="E16" s="17"/>
       <c r="F16" s="17"/>
       <c r="G16" s="17"/>
@@ -1643,13 +1774,13 @@
       <c r="U16" s="17"/>
       <c r="V16" s="17"/>
     </row>
-    <row r="17" spans="1:22" ht="225" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:22" ht="225" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>13</v>
       </c>
       <c r="B17" s="15"/>
       <c r="C17" s="3"/>
-      <c r="D17" s="17"/>
+      <c r="D17" s="4"/>
       <c r="E17" s="17"/>
       <c r="F17" s="17"/>
       <c r="G17" s="17"/>
@@ -1669,13 +1800,13 @@
       <c r="U17" s="17"/>
       <c r="V17" s="17"/>
     </row>
-    <row r="18" spans="1:22" ht="225" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:22" ht="225" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>14</v>
       </c>
       <c r="B18" s="15"/>
       <c r="C18" s="3"/>
-      <c r="D18" s="17"/>
+      <c r="D18" s="4"/>
       <c r="E18" s="17"/>
       <c r="F18" s="17"/>
       <c r="G18" s="17"/>
@@ -1695,13 +1826,13 @@
       <c r="U18" s="17"/>
       <c r="V18" s="17"/>
     </row>
-    <row r="19" spans="1:22" ht="225" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:22" ht="225" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>15</v>
       </c>
       <c r="B19" s="15"/>
       <c r="C19" s="3"/>
-      <c r="D19" s="17"/>
+      <c r="D19" s="4"/>
       <c r="E19" s="17"/>
       <c r="F19" s="17"/>
       <c r="G19" s="17"/>
@@ -1721,13 +1852,13 @@
       <c r="U19" s="17"/>
       <c r="V19" s="17"/>
     </row>
-    <row r="20" spans="1:22" ht="225" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:22" ht="225" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>16</v>
       </c>
       <c r="B20" s="15"/>
       <c r="C20" s="3"/>
-      <c r="D20" s="17"/>
+      <c r="D20" s="4"/>
       <c r="E20" s="17"/>
       <c r="F20" s="17"/>
       <c r="G20" s="17"/>
@@ -1747,13 +1878,13 @@
       <c r="U20" s="17"/>
       <c r="V20" s="17"/>
     </row>
-    <row r="21" spans="1:22" ht="225" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:22" ht="225" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B21" s="15"/>
       <c r="C21" s="3"/>
-      <c r="D21" s="17"/>
+      <c r="D21" s="4"/>
       <c r="E21" s="17"/>
       <c r="F21" s="17"/>
       <c r="G21" s="17"/>
@@ -1773,13 +1904,13 @@
       <c r="U21" s="17"/>
       <c r="V21" s="17"/>
     </row>
-    <row r="22" spans="1:22" ht="225" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:22" ht="225" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
         <v>18</v>
       </c>
       <c r="B22" s="15"/>
       <c r="C22" s="3"/>
-      <c r="D22" s="17"/>
+      <c r="D22" s="4"/>
       <c r="E22" s="17"/>
       <c r="F22" s="17"/>
       <c r="G22" s="17"/>
@@ -1799,13 +1930,13 @@
       <c r="U22" s="17"/>
       <c r="V22" s="17"/>
     </row>
-    <row r="23" spans="1:22" ht="225" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:22" ht="225" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
         <v>19</v>
       </c>
       <c r="B23" s="15"/>
       <c r="C23" s="3"/>
-      <c r="D23" s="17"/>
+      <c r="D23" s="4"/>
       <c r="E23" s="17"/>
       <c r="F23" s="17"/>
       <c r="G23" s="17"/>
@@ -1825,13 +1956,13 @@
       <c r="U23" s="17"/>
       <c r="V23" s="17"/>
     </row>
-    <row r="24" spans="1:22" ht="225" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:22" ht="225" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
         <v>20</v>
       </c>
       <c r="B24" s="15"/>
       <c r="C24" s="3"/>
-      <c r="D24" s="17"/>
+      <c r="D24" s="4"/>
       <c r="E24" s="17"/>
       <c r="F24" s="17"/>
       <c r="G24" s="17"/>
@@ -1851,13 +1982,13 @@
       <c r="U24" s="17"/>
       <c r="V24" s="17"/>
     </row>
-    <row r="25" spans="1:22" ht="225" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:22" ht="225" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
         <v>21</v>
       </c>
       <c r="B25" s="15"/>
       <c r="C25" s="3"/>
-      <c r="D25" s="17"/>
+      <c r="D25" s="4"/>
       <c r="E25" s="17"/>
       <c r="F25" s="17"/>
       <c r="G25" s="17"/>
@@ -1877,13 +2008,13 @@
       <c r="U25" s="17"/>
       <c r="V25" s="17"/>
     </row>
-    <row r="26" spans="1:22" ht="225" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:22" ht="225" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
         <v>22</v>
       </c>
       <c r="B26" s="15"/>
       <c r="C26" s="3"/>
-      <c r="D26" s="17"/>
+      <c r="D26" s="4"/>
       <c r="E26" s="17"/>
       <c r="F26" s="17"/>
       <c r="G26" s="17"/>
@@ -1903,13 +2034,13 @@
       <c r="U26" s="17"/>
       <c r="V26" s="17"/>
     </row>
-    <row r="27" spans="1:22" ht="225" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:22" ht="225" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
         <v>23</v>
       </c>
       <c r="B27" s="15"/>
       <c r="C27" s="3"/>
-      <c r="D27" s="17"/>
+      <c r="D27" s="4"/>
       <c r="E27" s="17"/>
       <c r="F27" s="17"/>
       <c r="G27" s="17"/>
@@ -1929,11 +2060,11 @@
       <c r="U27" s="17"/>
       <c r="V27" s="17"/>
     </row>
-    <row r="28" spans="1:22" ht="225" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:22" ht="225" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="9"/>
       <c r="B28" s="15"/>
       <c r="C28" s="3"/>
-      <c r="D28" s="17"/>
+      <c r="D28" s="4"/>
       <c r="E28" s="17"/>
       <c r="F28" s="17"/>
       <c r="G28" s="17"/>
@@ -1953,11 +2084,11 @@
       <c r="U28" s="17"/>
       <c r="V28" s="17"/>
     </row>
-    <row r="29" spans="1:22" ht="225" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:22" ht="225" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="9"/>
       <c r="B29" s="15"/>
       <c r="C29" s="3"/>
-      <c r="D29" s="17"/>
+      <c r="D29" s="4"/>
       <c r="E29" s="17"/>
       <c r="F29" s="17"/>
       <c r="G29" s="17"/>
@@ -1977,11 +2108,11 @@
       <c r="U29" s="17"/>
       <c r="V29" s="17"/>
     </row>
-    <row r="30" spans="1:22" ht="225" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:22" ht="225" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="9"/>
       <c r="B30" s="15"/>
       <c r="C30" s="3"/>
-      <c r="D30" s="17"/>
+      <c r="D30" s="4"/>
       <c r="E30" s="17"/>
       <c r="F30" s="17"/>
       <c r="G30" s="17"/>
@@ -2001,11 +2132,11 @@
       <c r="U30" s="17"/>
       <c r="V30" s="17"/>
     </row>
-    <row r="31" spans="1:22" ht="225" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:22" ht="225" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="9"/>
       <c r="B31" s="15"/>
       <c r="C31" s="3"/>
-      <c r="D31" s="17"/>
+      <c r="D31" s="4"/>
       <c r="E31" s="17"/>
       <c r="F31" s="17"/>
       <c r="G31" s="17"/>
@@ -2025,11 +2156,11 @@
       <c r="U31" s="17"/>
       <c r="V31" s="17"/>
     </row>
-    <row r="32" spans="1:22" ht="225" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:22" ht="225" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="9"/>
       <c r="B32" s="15"/>
       <c r="C32" s="3"/>
-      <c r="D32" s="17"/>
+      <c r="D32" s="4"/>
       <c r="E32" s="17"/>
       <c r="F32" s="17"/>
       <c r="G32" s="17"/>
@@ -2049,11 +2180,11 @@
       <c r="U32" s="17"/>
       <c r="V32" s="17"/>
     </row>
-    <row r="33" spans="1:22" ht="225" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:22" ht="225" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="9"/>
       <c r="B33" s="15"/>
       <c r="C33" s="3"/>
-      <c r="D33" s="17"/>
+      <c r="D33" s="4"/>
       <c r="E33" s="17"/>
       <c r="F33" s="17"/>
       <c r="G33" s="17"/>
@@ -2073,11 +2204,11 @@
       <c r="U33" s="17"/>
       <c r="V33" s="17"/>
     </row>
-    <row r="34" spans="1:22" ht="225" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:22" ht="225" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="9"/>
       <c r="B34" s="15"/>
       <c r="C34" s="3"/>
-      <c r="D34" s="17"/>
+      <c r="D34" s="4"/>
       <c r="E34" s="17"/>
       <c r="F34" s="17"/>
       <c r="G34" s="17"/>
@@ -2097,11 +2228,11 @@
       <c r="U34" s="17"/>
       <c r="V34" s="17"/>
     </row>
-    <row r="35" spans="1:22" ht="225" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:22" ht="225" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="9"/>
       <c r="B35" s="15"/>
       <c r="C35" s="3"/>
-      <c r="D35" s="17"/>
+      <c r="D35" s="4"/>
       <c r="E35" s="17"/>
       <c r="F35" s="17"/>
       <c r="G35" s="17"/>
@@ -2121,11 +2252,11 @@
       <c r="U35" s="17"/>
       <c r="V35" s="17"/>
     </row>
-    <row r="36" spans="1:22" ht="225" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:22" ht="225" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="9"/>
       <c r="B36" s="15"/>
       <c r="C36" s="3"/>
-      <c r="D36" s="17"/>
+      <c r="D36" s="4"/>
       <c r="E36" s="17"/>
       <c r="F36" s="17"/>
       <c r="G36" s="17"/>
@@ -2145,11 +2276,11 @@
       <c r="U36" s="17"/>
       <c r="V36" s="17"/>
     </row>
-    <row r="37" spans="1:22" ht="225" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:22" ht="225" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="9"/>
       <c r="B37" s="15"/>
       <c r="C37" s="3"/>
-      <c r="D37" s="17"/>
+      <c r="D37" s="4"/>
       <c r="E37" s="17"/>
       <c r="F37" s="17"/>
       <c r="G37" s="17"/>
@@ -2169,11 +2300,11 @@
       <c r="U37" s="17"/>
       <c r="V37" s="17"/>
     </row>
-    <row r="38" spans="1:22" ht="225" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:22" ht="225" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="9"/>
       <c r="B38" s="15"/>
       <c r="C38" s="3"/>
-      <c r="D38" s="17"/>
+      <c r="D38" s="4"/>
       <c r="E38" s="17"/>
       <c r="F38" s="17"/>
       <c r="G38" s="17"/>
@@ -2193,11 +2324,11 @@
       <c r="U38" s="17"/>
       <c r="V38" s="17"/>
     </row>
-    <row r="39" spans="1:22" ht="225" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:22" ht="225" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="9"/>
       <c r="B39" s="15"/>
       <c r="C39" s="3"/>
-      <c r="D39" s="17"/>
+      <c r="D39" s="4"/>
       <c r="E39" s="17"/>
       <c r="F39" s="17"/>
       <c r="G39" s="17"/>
@@ -2217,11 +2348,11 @@
       <c r="U39" s="17"/>
       <c r="V39" s="17"/>
     </row>
-    <row r="40" spans="1:22" ht="225" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:22" ht="225" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="9"/>
       <c r="B40" s="15"/>
       <c r="C40" s="3"/>
-      <c r="D40" s="17"/>
+      <c r="D40" s="4"/>
       <c r="E40" s="17"/>
       <c r="F40" s="17"/>
       <c r="G40" s="17"/>
@@ -2241,11 +2372,11 @@
       <c r="U40" s="17"/>
       <c r="V40" s="17"/>
     </row>
-    <row r="41" spans="1:22" ht="225" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:22" ht="225" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="9"/>
       <c r="B41" s="15"/>
       <c r="C41" s="3"/>
-      <c r="D41" s="17"/>
+      <c r="D41" s="4"/>
       <c r="E41" s="17"/>
       <c r="F41" s="17"/>
       <c r="G41" s="17"/>
@@ -2265,11 +2396,11 @@
       <c r="U41" s="17"/>
       <c r="V41" s="17"/>
     </row>
-    <row r="42" spans="1:22" ht="225" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:22" ht="225" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="9"/>
       <c r="B42" s="15"/>
       <c r="C42" s="3"/>
-      <c r="D42" s="17"/>
+      <c r="D42" s="4"/>
       <c r="E42" s="17"/>
       <c r="F42" s="17"/>
       <c r="G42" s="17"/>
@@ -2289,11 +2420,11 @@
       <c r="U42" s="17"/>
       <c r="V42" s="17"/>
     </row>
-    <row r="43" spans="1:22" ht="225" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:22" ht="225" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="9"/>
       <c r="B43" s="15"/>
       <c r="C43" s="3"/>
-      <c r="D43" s="17"/>
+      <c r="D43" s="4"/>
       <c r="E43" s="17"/>
       <c r="F43" s="17"/>
       <c r="G43" s="17"/>
@@ -2313,11 +2444,11 @@
       <c r="U43" s="17"/>
       <c r="V43" s="17"/>
     </row>
-    <row r="44" spans="1:22" ht="225" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:22" ht="225" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="9"/>
       <c r="B44" s="15"/>
       <c r="C44" s="3"/>
-      <c r="D44" s="17"/>
+      <c r="D44" s="4"/>
       <c r="E44" s="17"/>
       <c r="F44" s="17"/>
       <c r="G44" s="17"/>
@@ -2337,11 +2468,11 @@
       <c r="U44" s="17"/>
       <c r="V44" s="17"/>
     </row>
-    <row r="45" spans="1:22" ht="225" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:22" ht="225" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="9"/>
       <c r="B45" s="15"/>
       <c r="C45" s="3"/>
-      <c r="D45" s="17"/>
+      <c r="D45" s="4"/>
       <c r="E45" s="17"/>
       <c r="F45" s="17"/>
       <c r="G45" s="17"/>
@@ -2361,11 +2492,11 @@
       <c r="U45" s="17"/>
       <c r="V45" s="17"/>
     </row>
-    <row r="46" spans="1:22" ht="225" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:22" ht="225" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="9"/>
       <c r="B46" s="15"/>
       <c r="C46" s="3"/>
-      <c r="D46" s="17"/>
+      <c r="D46" s="4"/>
       <c r="E46" s="17"/>
       <c r="F46" s="17"/>
       <c r="G46" s="17"/>
@@ -2385,11 +2516,11 @@
       <c r="U46" s="17"/>
       <c r="V46" s="17"/>
     </row>
-    <row r="47" spans="1:22" ht="225" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:22" ht="225" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="9"/>
       <c r="B47" s="15"/>
       <c r="C47" s="3"/>
-      <c r="D47" s="17"/>
+      <c r="D47" s="4"/>
       <c r="E47" s="17"/>
       <c r="F47" s="17"/>
       <c r="G47" s="17"/>
@@ -2409,11 +2540,11 @@
       <c r="U47" s="17"/>
       <c r="V47" s="17"/>
     </row>
-    <row r="48" spans="1:22" ht="225" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:22" ht="225" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="9"/>
       <c r="B48" s="15"/>
       <c r="C48" s="3"/>
-      <c r="D48" s="17"/>
+      <c r="D48" s="4"/>
       <c r="E48" s="17"/>
       <c r="F48" s="17"/>
       <c r="G48" s="17"/>
@@ -2433,11 +2564,11 @@
       <c r="U48" s="17"/>
       <c r="V48" s="17"/>
     </row>
-    <row r="49" spans="1:22" ht="225" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:22" ht="225" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="9"/>
       <c r="B49" s="15"/>
       <c r="C49" s="3"/>
-      <c r="D49" s="17"/>
+      <c r="D49" s="4"/>
       <c r="E49" s="17"/>
       <c r="F49" s="17"/>
       <c r="G49" s="17"/>
@@ -2457,11 +2588,11 @@
       <c r="U49" s="17"/>
       <c r="V49" s="17"/>
     </row>
-    <row r="50" spans="1:22" ht="225" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:22" ht="225" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="9"/>
       <c r="B50" s="15"/>
       <c r="C50" s="3"/>
-      <c r="D50" s="17"/>
+      <c r="D50" s="4"/>
       <c r="E50" s="17"/>
       <c r="F50" s="17"/>
       <c r="G50" s="17"/>
@@ -2481,11 +2612,11 @@
       <c r="U50" s="17"/>
       <c r="V50" s="17"/>
     </row>
-    <row r="51" spans="1:22" ht="225" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:22" ht="225" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="9"/>
       <c r="B51" s="15"/>
       <c r="C51" s="3"/>
-      <c r="D51" s="17"/>
+      <c r="D51" s="4"/>
       <c r="E51" s="17"/>
       <c r="F51" s="17"/>
       <c r="G51" s="17"/>
@@ -2505,11 +2636,11 @@
       <c r="U51" s="17"/>
       <c r="V51" s="17"/>
     </row>
-    <row r="52" spans="1:22" ht="225" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:22" ht="225" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="9"/>
       <c r="B52" s="15"/>
       <c r="C52" s="3"/>
-      <c r="D52" s="17"/>
+      <c r="D52" s="4"/>
       <c r="E52" s="17"/>
       <c r="F52" s="17"/>
       <c r="G52" s="17"/>
@@ -2529,11 +2660,11 @@
       <c r="U52" s="17"/>
       <c r="V52" s="17"/>
     </row>
-    <row r="53" spans="1:22" ht="225" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:22" ht="225" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="9"/>
       <c r="B53" s="15"/>
       <c r="C53" s="3"/>
-      <c r="D53" s="17"/>
+      <c r="D53" s="4"/>
       <c r="E53" s="17"/>
       <c r="F53" s="17"/>
       <c r="G53" s="17"/>
@@ -2553,11 +2684,11 @@
       <c r="U53" s="17"/>
       <c r="V53" s="17"/>
     </row>
-    <row r="54" spans="1:22" ht="225" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:22" ht="225" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="9"/>
       <c r="B54" s="15"/>
       <c r="C54" s="3"/>
-      <c r="D54" s="17"/>
+      <c r="D54" s="4"/>
       <c r="E54" s="17"/>
       <c r="F54" s="17"/>
       <c r="G54" s="17"/>
@@ -2577,11 +2708,11 @@
       <c r="U54" s="17"/>
       <c r="V54" s="17"/>
     </row>
-    <row r="55" spans="1:22" ht="225" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:22" ht="225" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="9"/>
       <c r="B55" s="15"/>
       <c r="C55" s="3"/>
-      <c r="D55" s="17"/>
+      <c r="D55" s="4"/>
       <c r="E55" s="17"/>
       <c r="F55" s="17"/>
       <c r="G55" s="17"/>
@@ -2601,11 +2732,11 @@
       <c r="U55" s="17"/>
       <c r="V55" s="17"/>
     </row>
-    <row r="56" spans="1:22" ht="225" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:22" ht="225" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="9"/>
       <c r="B56" s="15"/>
       <c r="C56" s="3"/>
-      <c r="D56" s="17"/>
+      <c r="D56" s="4"/>
       <c r="E56" s="17"/>
       <c r="F56" s="17"/>
       <c r="G56" s="17"/>
@@ -2625,11 +2756,11 @@
       <c r="U56" s="17"/>
       <c r="V56" s="17"/>
     </row>
-    <row r="57" spans="1:22" ht="225" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:22" ht="225" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="9"/>
       <c r="B57" s="15"/>
       <c r="C57" s="3"/>
-      <c r="D57" s="17"/>
+      <c r="D57" s="4"/>
       <c r="E57" s="17"/>
       <c r="F57" s="17"/>
       <c r="G57" s="17"/>
@@ -2649,11 +2780,11 @@
       <c r="U57" s="17"/>
       <c r="V57" s="17"/>
     </row>
-    <row r="58" spans="1:22" ht="225" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:22" ht="225" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="9"/>
       <c r="B58" s="15"/>
       <c r="C58" s="3"/>
-      <c r="D58" s="17"/>
+      <c r="D58" s="4"/>
       <c r="E58" s="17"/>
       <c r="F58" s="17"/>
       <c r="G58" s="17"/>
@@ -2673,11 +2804,11 @@
       <c r="U58" s="17"/>
       <c r="V58" s="17"/>
     </row>
-    <row r="59" spans="1:22" ht="225" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:22" ht="225" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="9"/>
       <c r="B59" s="15"/>
       <c r="C59" s="3"/>
-      <c r="D59" s="17"/>
+      <c r="D59" s="4"/>
       <c r="E59" s="17"/>
       <c r="F59" s="17"/>
       <c r="G59" s="17"/>
@@ -2697,11 +2828,11 @@
       <c r="U59" s="17"/>
       <c r="V59" s="17"/>
     </row>
-    <row r="60" spans="1:22" ht="225" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:22" ht="225" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="9"/>
       <c r="B60" s="15"/>
       <c r="C60" s="3"/>
-      <c r="D60" s="17"/>
+      <c r="D60" s="4"/>
       <c r="E60" s="17"/>
       <c r="F60" s="17"/>
       <c r="G60" s="17"/>
@@ -2721,11 +2852,11 @@
       <c r="U60" s="17"/>
       <c r="V60" s="17"/>
     </row>
-    <row r="61" spans="1:22" ht="225" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:22" ht="225" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="9"/>
       <c r="B61" s="15"/>
       <c r="C61" s="3"/>
-      <c r="D61" s="17"/>
+      <c r="D61" s="4"/>
       <c r="E61" s="17"/>
       <c r="F61" s="17"/>
       <c r="G61" s="17"/>
@@ -2745,11 +2876,11 @@
       <c r="U61" s="17"/>
       <c r="V61" s="17"/>
     </row>
-    <row r="62" spans="1:22" ht="225" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:22" ht="225" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="9"/>
       <c r="B62" s="15"/>
       <c r="C62" s="3"/>
-      <c r="D62" s="17"/>
+      <c r="D62" s="4"/>
       <c r="E62" s="17"/>
       <c r="F62" s="17"/>
       <c r="G62" s="17"/>
@@ -2769,11 +2900,11 @@
       <c r="U62" s="17"/>
       <c r="V62" s="17"/>
     </row>
-    <row r="63" spans="1:22" ht="225" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:22" ht="225" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="9"/>
       <c r="B63" s="15"/>
       <c r="C63" s="3"/>
-      <c r="D63" s="17"/>
+      <c r="D63" s="4"/>
       <c r="E63" s="17"/>
       <c r="F63" s="17"/>
       <c r="G63" s="17"/>
@@ -2793,11 +2924,11 @@
       <c r="U63" s="17"/>
       <c r="V63" s="17"/>
     </row>
-    <row r="64" spans="1:22" ht="225" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:22" ht="225" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="9"/>
       <c r="B64" s="15"/>
       <c r="C64" s="3"/>
-      <c r="D64" s="17"/>
+      <c r="D64" s="4"/>
       <c r="E64" s="17"/>
       <c r="F64" s="17"/>
       <c r="G64" s="17"/>
@@ -2817,11 +2948,11 @@
       <c r="U64" s="17"/>
       <c r="V64" s="17"/>
     </row>
-    <row r="65" spans="1:22" ht="225" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:22" ht="225" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="9"/>
       <c r="B65" s="15"/>
       <c r="C65" s="3"/>
-      <c r="D65" s="17"/>
+      <c r="D65" s="4"/>
       <c r="E65" s="17"/>
       <c r="F65" s="17"/>
       <c r="G65" s="17"/>
@@ -2841,11 +2972,11 @@
       <c r="U65" s="17"/>
       <c r="V65" s="17"/>
     </row>
-    <row r="66" spans="1:22" ht="225" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:22" ht="225" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="9"/>
       <c r="B66" s="15"/>
       <c r="C66" s="3"/>
-      <c r="D66" s="17"/>
+      <c r="D66" s="4"/>
       <c r="E66" s="17"/>
       <c r="F66" s="17"/>
       <c r="G66" s="17"/>
@@ -2865,11 +2996,11 @@
       <c r="U66" s="17"/>
       <c r="V66" s="17"/>
     </row>
-    <row r="67" spans="1:22" ht="225" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:22" ht="225" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="9"/>
       <c r="B67" s="15"/>
       <c r="C67" s="3"/>
-      <c r="D67" s="17"/>
+      <c r="D67" s="4"/>
       <c r="E67" s="17"/>
       <c r="F67" s="17"/>
       <c r="G67" s="17"/>
@@ -2889,11 +3020,11 @@
       <c r="U67" s="17"/>
       <c r="V67" s="17"/>
     </row>
-    <row r="68" spans="1:22" ht="225" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:22" ht="225" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="9"/>
       <c r="B68" s="15"/>
       <c r="C68" s="3"/>
-      <c r="D68" s="17"/>
+      <c r="D68" s="4"/>
       <c r="E68" s="17"/>
       <c r="F68" s="17"/>
       <c r="G68" s="17"/>
@@ -2913,11 +3044,11 @@
       <c r="U68" s="17"/>
       <c r="V68" s="17"/>
     </row>
-    <row r="69" spans="1:22" ht="225" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:22" ht="225" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="9"/>
       <c r="B69" s="15"/>
       <c r="C69" s="3"/>
-      <c r="D69" s="17"/>
+      <c r="D69" s="4"/>
       <c r="E69" s="17"/>
       <c r="F69" s="17"/>
       <c r="G69" s="17"/>
@@ -2937,11 +3068,11 @@
       <c r="U69" s="17"/>
       <c r="V69" s="17"/>
     </row>
-    <row r="70" spans="1:22" ht="225" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:22" ht="225" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="9"/>
       <c r="B70" s="15"/>
       <c r="C70" s="3"/>
-      <c r="D70" s="17"/>
+      <c r="D70" s="4"/>
       <c r="E70" s="17"/>
       <c r="F70" s="17"/>
       <c r="G70" s="17"/>
@@ -2961,11 +3092,11 @@
       <c r="U70" s="17"/>
       <c r="V70" s="17"/>
     </row>
-    <row r="71" spans="1:22" ht="225" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:22" ht="225" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="9"/>
       <c r="B71" s="15"/>
       <c r="C71" s="3"/>
-      <c r="D71" s="17"/>
+      <c r="D71" s="4"/>
       <c r="E71" s="17"/>
       <c r="F71" s="17"/>
       <c r="G71" s="17"/>
@@ -2985,11 +3116,11 @@
       <c r="U71" s="17"/>
       <c r="V71" s="17"/>
     </row>
-    <row r="72" spans="1:22" ht="225" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:22" ht="225" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="9"/>
       <c r="B72" s="10"/>
       <c r="C72" s="3"/>
-      <c r="D72" s="17"/>
+      <c r="D72" s="4"/>
       <c r="E72" s="17"/>
       <c r="F72" s="17"/>
       <c r="G72" s="17"/>

--- a/document/Literature Review/Lit_Matrix-zlu.xlsx
+++ b/document/Literature Review/Lit_Matrix-zlu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\southampton-learn\iot\Msc_Project\Msc_project\document\Literature Review\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11F28829-B79A-4682-996F-E3A1FD0DC270}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EED07BD1-4075-4A82-8F70-F7809E5E16B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{1F4AD7AE-9429-43CE-B8D9-38B1EADC8473}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
   <si>
     <t>[2]</t>
   </si>
@@ -659,6 +659,9 @@
   <si>
     <t xml:space="preserve">GTCN-RC : Deep learning
 DD: Deep learning </t>
+  </si>
+  <si>
+    <t>None</t>
   </si>
 </sst>
 </file>
@@ -819,7 +822,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -870,12 +873,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -884,6 +881,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1205,7 +1211,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F4" sqref="F4"/>
+      <selection pane="bottomRight" activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="225" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1213,7 +1219,7 @@
     <col min="1" max="1" width="10.42578125" style="4" customWidth="1"/>
     <col min="2" max="2" width="46" style="5" customWidth="1"/>
     <col min="3" max="3" width="46" style="1" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="28.85546875" style="22" customWidth="1"/>
+    <col min="4" max="4" width="28.85546875" style="20" customWidth="1"/>
     <col min="5" max="5" width="21.42578125" customWidth="1"/>
     <col min="6" max="8" width="24.7109375" customWidth="1"/>
     <col min="9" max="9" width="31.140625" customWidth="1"/>
@@ -1301,10 +1307,10 @@
       </c>
     </row>
     <row r="2" spans="1:22" s="2" customFormat="1" ht="58.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="19"/>
+      <c r="B2" s="22"/>
       <c r="C2" s="16" t="s">
         <v>48</v>
       </c>
@@ -1377,7 +1383,7 @@
       <c r="D3" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="E3" s="18" t="s">
         <v>52</v>
       </c>
       <c r="F3" s="3" t="s">
@@ -1419,7 +1425,7 @@
       <c r="R3" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="S3" s="21" t="s">
+      <c r="S3" s="19" t="s">
         <v>65</v>
       </c>
       <c r="T3" s="3" t="s">
@@ -1440,10 +1446,12 @@
         <v>69</v>
       </c>
       <c r="C4" s="3"/>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="E4" s="17"/>
+      <c r="E4" s="23" t="s">
+        <v>71</v>
+      </c>
       <c r="F4" s="17"/>
       <c r="G4" s="17"/>
       <c r="H4" s="17"/>
